--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1179910.314563735</v>
+        <v>1218440.649247005</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625948.6630396502</v>
+        <v>625948.6630396498</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5996855.681156752</v>
+        <v>7817379.804902515</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9673514.34643485</v>
+        <v>8832841.549883848</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>16.60557849018832</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>233.6257157225927</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.8950372953901</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>187.7921753589434</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>52.50084918926082</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>82.59957183215651</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>169.9153508864188</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>97.4271589199805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>15.00822209910717</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>140.4022687155554</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1432,10 +1432,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>91.72166227029862</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>160.9020127260047</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.363399827270973</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.501399875593993</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.78350070179</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>128.4340426649161</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228945</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91829686264164</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>94.63926978364034</v>
+        <v>125.8721928563315</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H23" t="n">
         <v>318.0487214609057</v>
       </c>
       <c r="I23" t="n">
-        <v>129.8188433654457</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>18.44902381826972</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.1782820837292</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>22.28424684662946</v>
       </c>
       <c r="X23" t="n">
-        <v>355.967574191289</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>159.9934828966352</v>
       </c>
       <c r="T25" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>116.1448144394946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.2106022137938</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I26" t="n">
         <v>129.8188433654457</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>249.4911379258364</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>247.7548797433086</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>15.10835818369416</v>
+        <v>165.2664304759161</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>352.4802214845258</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I29" t="n">
-        <v>129.8188433654457</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.48873210426294</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>39.57784677043961</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T31" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>68.71445984099569</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>1.284532570606959</v>
       </c>
       <c r="G32" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I32" t="n">
         <v>129.8188433654457</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>18.44902381826969</v>
       </c>
       <c r="S32" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U32" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>32.13808719534196</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I33" t="n">
-        <v>50.85619463218984</v>
+        <v>50.85619463218983</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>30.65739549896765</v>
+        <v>30.65739549896763</v>
       </c>
       <c r="S33" t="n">
         <v>150.8909729053131</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>158.8468068071341</v>
+        <v>53.55762244236434</v>
       </c>
       <c r="U34" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>69.48873210426338</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>101.8897921519669</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I36" t="n">
-        <v>50.85619463218984</v>
+        <v>50.85619463218983</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>30.65739549896765</v>
+        <v>30.65739549896763</v>
       </c>
       <c r="S36" t="n">
         <v>150.8909729053131</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.9358063394608</v>
+        <v>53.55762244236434</v>
       </c>
       <c r="U37" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V37" t="n">
-        <v>81.75945942673155</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3505,16 +3505,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>250.9054116276703</v>
       </c>
       <c r="G38" t="n">
         <v>413.2106022137938</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>18.44902381826969</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U38" t="n">
-        <v>199.307575469709</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I39" t="n">
-        <v>50.85619463218984</v>
+        <v>50.85619463218983</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>30.65739549896765</v>
+        <v>30.65739549896763</v>
       </c>
       <c r="S39" t="n">
         <v>150.8909729053131</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>81.75945942673155</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>53.5576224423644</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>287.1197772668934</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>18.44902381826969</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.1588575774459</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>53.5576224423644</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>16.77548223700073</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>18.44902381826969</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U44" t="n">
-        <v>180.8585516514399</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>198.3894023646101</v>
       </c>
     </row>
     <row r="45">
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>115.8896567391116</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>53.5576224423644</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1612.648978880277</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1226.860726282033</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>815.8748214924256</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>397.9110133906124</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>70.71629342661527</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1426.498002692507</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1426.498002692507</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2452.431335529581</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2121.36844818601</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1768.599792915896</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1395.134034654816</v>
       </c>
       <c r="Y5" t="n">
-        <v>2642.120401548716</v>
+        <v>1004.994702679004</v>
       </c>
     </row>
     <row r="6">
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073964</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>675.0978234092011</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>675.0978234092011</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>675.0978234092011</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>675.0978234092011</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>675.0978234092011</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>675.0978234092011</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2079.343073798764</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C8" t="n">
-        <v>1710.380556858352</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D8" t="n">
-        <v>1352.114858251602</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E8" t="n">
-        <v>966.3266056533573</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F8" t="n">
-        <v>555.3407008637498</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>137.3768927619367</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>137.3768927619367</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2349.339935770353</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2349.339935770353</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2349.339935770353</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2349.339935770353</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1975.874177509273</v>
       </c>
       <c r="Y8" t="n">
-        <v>2465.942913862886</v>
+        <v>1585.734845533462</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.6523285934727</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y10" t="n">
-        <v>600.3007934237124</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1335.58524627281</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C11" t="n">
-        <v>966.622729332398</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D11" t="n">
-        <v>608.3570307256475</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E11" t="n">
-        <v>222.5687781274033</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F11" t="n">
-        <v>222.5687781274033</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>222.5687781274033</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2500.29992809866</v>
       </c>
       <c r="U11" t="n">
-        <v>2443.387305656314</v>
+        <v>2246.538142736751</v>
       </c>
       <c r="V11" t="n">
-        <v>2112.324418312743</v>
+        <v>1915.475255393181</v>
       </c>
       <c r="W11" t="n">
-        <v>2112.324418312743</v>
+        <v>1562.706600123066</v>
       </c>
       <c r="X11" t="n">
-        <v>2112.324418312743</v>
+        <v>1189.240841861987</v>
       </c>
       <c r="Y11" t="n">
-        <v>1722.185086336931</v>
+        <v>799.1015098861748</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5141,22 +5141,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>975.5408384191576</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C14" t="n">
-        <v>882.8926947117852</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D14" t="n">
-        <v>882.8926947117852</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5281,10 +5281,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5305,25 +5305,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U14" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V14" t="n">
-        <v>2478.514423990285</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W14" t="n">
-        <v>2125.745768720171</v>
+        <v>1808.746763379062</v>
       </c>
       <c r="X14" t="n">
-        <v>1752.280010459091</v>
+        <v>1808.746763379062</v>
       </c>
       <c r="Y14" t="n">
-        <v>1362.140678483279</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5369,37 +5369,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5442,34 +5442,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U16" t="n">
-        <v>438.9553738610024</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V16" t="n">
         <v>343.360151857325</v>
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>863.1126181035238</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C17" t="n">
-        <v>863.1126181035238</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D17" t="n">
-        <v>863.1126181035238</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E17" t="n">
-        <v>477.3243655052796</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
-        <v>477.3243655052796</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G17" t="n">
-        <v>59.36055740346643</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5533,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2639.593735007711</v>
       </c>
       <c r="V17" t="n">
-        <v>2366.086203674651</v>
+        <v>2308.53084766414</v>
       </c>
       <c r="W17" t="n">
-        <v>2013.317548404537</v>
+        <v>1955.762192394026</v>
       </c>
       <c r="X17" t="n">
-        <v>1639.851790143457</v>
+        <v>1582.296434132946</v>
       </c>
       <c r="Y17" t="n">
-        <v>1249.712458167646</v>
+        <v>1192.157102157134</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T19" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U19" t="n">
-        <v>352.67413830922</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>352.67413830922</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="X19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036443</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1253.251950079336</v>
+        <v>1546.944160717208</v>
       </c>
       <c r="C20" t="n">
-        <v>1253.251950079336</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>894.9862514725851</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E20" t="n">
-        <v>509.1979988743408</v>
+        <v>792.1933911785522</v>
       </c>
       <c r="F20" t="n">
-        <v>509.1979988743408</v>
+        <v>381.2074863889447</v>
       </c>
       <c r="G20" t="n">
-        <v>91.23419077252771</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5770,34 +5770,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V20" t="n">
-        <v>2366.086203674651</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W20" t="n">
-        <v>2013.317548404537</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="X20" t="n">
-        <v>1639.851790143457</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y20" t="n">
-        <v>1639.851790143457</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T22" t="n">
-        <v>632.5337622027571</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="U22" t="n">
-        <v>343.360151857325</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036444</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036444</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036444</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>888.5562931593024</v>
+        <v>1602.622235473761</v>
       </c>
       <c r="C23" t="n">
-        <v>519.5937762188908</v>
+        <v>1602.622235473761</v>
       </c>
       <c r="D23" t="n">
-        <v>519.5937762188908</v>
+        <v>1602.622235473761</v>
       </c>
       <c r="E23" t="n">
-        <v>519.5937762188908</v>
+        <v>1216.833982875517</v>
       </c>
       <c r="F23" t="n">
-        <v>519.5937762188908</v>
+        <v>805.848078085909</v>
       </c>
       <c r="G23" t="n">
-        <v>519.5937762188908</v>
+        <v>388.4636314053092</v>
       </c>
       <c r="H23" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I23" t="n">
         <v>67.20229659631353</v>
@@ -6013,28 +6013,28 @@
         <v>3360.114829815677</v>
       </c>
       <c r="R23" t="n">
-        <v>3341.479452221465</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="S23" t="n">
-        <v>3178.504162921535</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="T23" t="n">
-        <v>2962.405650514959</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="U23" t="n">
-        <v>2708.690214066748</v>
+        <v>3106.399393367466</v>
       </c>
       <c r="V23" t="n">
-        <v>2377.627326723177</v>
+        <v>2775.336506023895</v>
       </c>
       <c r="W23" t="n">
-        <v>2024.858671453063</v>
+        <v>2752.827165774774</v>
       </c>
       <c r="X23" t="n">
-        <v>1665.295465199236</v>
+        <v>2379.361407513694</v>
       </c>
       <c r="Y23" t="n">
-        <v>1275.156133223424</v>
+        <v>1989.222075537883</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>67.20229659631353</v>
       </c>
       <c r="K24" t="n">
-        <v>371.5093956067679</v>
+        <v>109.6888109643151</v>
       </c>
       <c r="L24" t="n">
-        <v>842.0922403416544</v>
+        <v>580.2716556992016</v>
       </c>
       <c r="M24" t="n">
-        <v>1394.425341114752</v>
+        <v>1181.398861186279</v>
       </c>
       <c r="N24" t="n">
-        <v>1552.620657808585</v>
+        <v>1814.14312848023</v>
       </c>
       <c r="O24" t="n">
-        <v>2065.042367504971</v>
+        <v>2326.564838176616</v>
       </c>
       <c r="P24" t="n">
-        <v>2459.30289775485</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q24" t="n">
         <v>2670.157851783212</v>
@@ -6174,25 +6174,25 @@
         <v>954.5619983528705</v>
       </c>
       <c r="S25" t="n">
-        <v>954.5619983528705</v>
+        <v>792.9524196694007</v>
       </c>
       <c r="T25" t="n">
-        <v>728.364214171597</v>
+        <v>792.9524196694007</v>
       </c>
       <c r="U25" t="n">
-        <v>439.2047791855283</v>
+        <v>792.9524196694007</v>
       </c>
       <c r="V25" t="n">
-        <v>184.5202909796414</v>
+        <v>538.2679314635138</v>
       </c>
       <c r="W25" t="n">
-        <v>184.5202909796414</v>
+        <v>248.8507614265532</v>
       </c>
       <c r="X25" t="n">
-        <v>184.5202909796414</v>
+        <v>248.8507614265532</v>
       </c>
       <c r="Y25" t="n">
-        <v>67.20229659631353</v>
+        <v>248.8507614265532</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1412.491045478347</v>
+        <v>1664.206438446653</v>
       </c>
       <c r="C26" t="n">
-        <v>1412.491045478347</v>
+        <v>1295.243921506241</v>
       </c>
       <c r="D26" t="n">
-        <v>1412.491045478347</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="E26" t="n">
-        <v>1026.702792880102</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="F26" t="n">
-        <v>615.7168880904949</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="G26" t="n">
-        <v>198.3324414098951</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H26" t="n">
         <v>198.3324414098951</v>
       </c>
       <c r="I26" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J26" t="n">
-        <v>231.1641949821401</v>
+        <v>231.164194982141</v>
       </c>
       <c r="K26" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726759</v>
       </c>
       <c r="L26" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M26" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375319</v>
       </c>
       <c r="N26" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.663407417572</v>
       </c>
       <c r="O26" t="n">
         <v>2758.834606696549</v>
       </c>
       <c r="P26" t="n">
-        <v>3146.337816775584</v>
+        <v>3146.337816775585</v>
       </c>
       <c r="Q26" t="n">
         <v>3360.114829815677</v>
@@ -6256,22 +6256,22 @@
         <v>3360.114829815677</v>
       </c>
       <c r="T26" t="n">
-        <v>3144.016317409101</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="U26" t="n">
-        <v>3144.016317409101</v>
+        <v>3108.103579385539</v>
       </c>
       <c r="V26" t="n">
-        <v>2812.95343006553</v>
+        <v>2777.040692041969</v>
       </c>
       <c r="W26" t="n">
-        <v>2562.69597577936</v>
+        <v>2424.272036771854</v>
       </c>
       <c r="X26" t="n">
-        <v>2189.23021751828</v>
+        <v>2050.806278510775</v>
       </c>
       <c r="Y26" t="n">
-        <v>1799.090885542468</v>
+        <v>2050.806278510775</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I27" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J27" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="K27" t="n">
         <v>371.5093956067679</v>
       </c>
       <c r="L27" t="n">
-        <v>842.0922403416544</v>
+        <v>526.7256998860473</v>
       </c>
       <c r="M27" t="n">
-        <v>1394.425341114752</v>
+        <v>1127.852905373124</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.620657808585</v>
+        <v>1760.597172667076</v>
       </c>
       <c r="O27" t="n">
-        <v>2065.042367504971</v>
+        <v>2273.018882363462</v>
       </c>
       <c r="P27" t="n">
-        <v>2459.30289775485</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q27" t="n">
         <v>2670.157851783212</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>490.5189004490057</v>
+        <v>362.005337676617</v>
       </c>
       <c r="C28" t="n">
-        <v>490.5189004490057</v>
+        <v>362.005337676617</v>
       </c>
       <c r="D28" t="n">
-        <v>490.5189004490057</v>
+        <v>362.005337676617</v>
       </c>
       <c r="E28" t="n">
-        <v>342.6058068666126</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="F28" t="n">
-        <v>195.7158593687022</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="G28" t="n">
-        <v>195.7158593687022</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="H28" t="n">
-        <v>195.7158593687022</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="I28" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J28" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="K28" t="n">
         <v>153.0971541490671</v>
@@ -6408,28 +6408,28 @@
         <v>954.5619983528705</v>
       </c>
       <c r="R28" t="n">
-        <v>954.5619983528705</v>
+        <v>818.100561022197</v>
       </c>
       <c r="S28" t="n">
-        <v>954.5619983528705</v>
+        <v>818.100561022197</v>
       </c>
       <c r="T28" t="n">
-        <v>954.5619983528705</v>
+        <v>818.100561022197</v>
       </c>
       <c r="U28" t="n">
-        <v>954.5619983528705</v>
+        <v>528.9411260361283</v>
       </c>
       <c r="V28" t="n">
-        <v>954.5619983528705</v>
+        <v>528.9411260361283</v>
       </c>
       <c r="W28" t="n">
-        <v>939.3010304905532</v>
+        <v>362.005337676617</v>
       </c>
       <c r="X28" t="n">
-        <v>711.3114795925359</v>
+        <v>362.005337676617</v>
       </c>
       <c r="Y28" t="n">
-        <v>490.5189004490057</v>
+        <v>362.005337676617</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2139.719261025509</v>
+        <v>1899.544115162059</v>
       </c>
       <c r="C29" t="n">
-        <v>1770.756744085097</v>
+        <v>1543.503487399911</v>
       </c>
       <c r="D29" t="n">
-        <v>1412.491045478347</v>
+        <v>1185.237788793161</v>
       </c>
       <c r="E29" t="n">
-        <v>1026.702792880102</v>
+        <v>799.4495361949167</v>
       </c>
       <c r="F29" t="n">
-        <v>615.7168880904949</v>
+        <v>388.4636314053092</v>
       </c>
       <c r="G29" t="n">
-        <v>198.3324414098951</v>
+        <v>388.4636314053092</v>
       </c>
       <c r="H29" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="I29" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J29" t="n">
-        <v>231.1641949821406</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K29" t="n">
-        <v>597.6453821726755</v>
+        <v>597.6453821726753</v>
       </c>
       <c r="L29" t="n">
         <v>1104.574328908086</v>
@@ -6475,10 +6475,10 @@
         <v>1685.237002375318</v>
       </c>
       <c r="N29" t="n">
-        <v>2260.663407417572</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O29" t="n">
-        <v>2758.834606696549</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P29" t="n">
         <v>3146.337816775584</v>
@@ -6490,25 +6490,25 @@
         <v>3360.114829815677</v>
       </c>
       <c r="S29" t="n">
-        <v>3289.924191326522</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="T29" t="n">
-        <v>3289.924191326522</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="U29" t="n">
-        <v>3289.924191326522</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="V29" t="n">
-        <v>3289.924191326522</v>
+        <v>3029.051942472106</v>
       </c>
       <c r="W29" t="n">
-        <v>3289.924191326522</v>
+        <v>2676.283287201992</v>
       </c>
       <c r="X29" t="n">
-        <v>2916.458433065442</v>
+        <v>2676.283287201992</v>
       </c>
       <c r="Y29" t="n">
-        <v>2526.319101089631</v>
+        <v>2286.14395522618</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I30" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J30" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="K30" t="n">
-        <v>475.4705993509099</v>
+        <v>371.5093956067679</v>
       </c>
       <c r="L30" t="n">
-        <v>946.0534440857964</v>
+        <v>842.0922403416544</v>
       </c>
       <c r="M30" t="n">
-        <v>1086.132636460373</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N30" t="n">
-        <v>1552.620657808585</v>
+        <v>1601.414762522565</v>
       </c>
       <c r="O30" t="n">
-        <v>2065.042367504971</v>
+        <v>2113.836472218951</v>
       </c>
       <c r="P30" t="n">
-        <v>2459.30289775485</v>
+        <v>2508.097002468829</v>
       </c>
       <c r="Q30" t="n">
         <v>2670.157851783212</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>688.386591171153</v>
+        <v>493.7455923634311</v>
       </c>
       <c r="C31" t="n">
-        <v>688.386591171153</v>
+        <v>493.7455923634311</v>
       </c>
       <c r="D31" t="n">
-        <v>538.2699517588172</v>
+        <v>343.6289529510954</v>
       </c>
       <c r="E31" t="n">
-        <v>538.2699517588172</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="F31" t="n">
-        <v>391.3800042609069</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="G31" t="n">
-        <v>222.6400855875664</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="H31" t="n">
-        <v>67.20229659631353</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="I31" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J31" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="K31" t="n">
         <v>153.0971541490671</v>
@@ -6648,25 +6648,25 @@
         <v>954.5619983528705</v>
       </c>
       <c r="S31" t="n">
-        <v>914.5843753524265</v>
+        <v>744.8026024876059</v>
       </c>
       <c r="T31" t="n">
-        <v>688.386591171153</v>
+        <v>744.8026024876059</v>
       </c>
       <c r="U31" t="n">
-        <v>688.386591171153</v>
+        <v>744.8026024876059</v>
       </c>
       <c r="V31" t="n">
-        <v>688.386591171153</v>
+        <v>744.8026024876059</v>
       </c>
       <c r="W31" t="n">
-        <v>688.386591171153</v>
+        <v>744.8026024876059</v>
       </c>
       <c r="X31" t="n">
-        <v>688.386591171153</v>
+        <v>675.3940571936708</v>
       </c>
       <c r="Y31" t="n">
-        <v>688.386591171153</v>
+        <v>675.3940571936708</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1781.453562418758</v>
+        <v>1248.119499413131</v>
       </c>
       <c r="C32" t="n">
-        <v>1412.491045478347</v>
+        <v>879.1569824727189</v>
       </c>
       <c r="D32" t="n">
-        <v>1412.491045478347</v>
+        <v>520.8912838659685</v>
       </c>
       <c r="E32" t="n">
-        <v>1026.702792880102</v>
+        <v>520.8912838659685</v>
       </c>
       <c r="F32" t="n">
-        <v>615.7168880904949</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="G32" t="n">
-        <v>198.3324414098951</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H32" t="n">
         <v>198.3324414098951</v>
       </c>
       <c r="I32" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J32" t="n">
-        <v>231.1641949821406</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K32" t="n">
         <v>597.6453821726755</v>
@@ -6724,28 +6724,28 @@
         <v>3360.114829815677</v>
       </c>
       <c r="R32" t="n">
-        <v>3360.114829815677</v>
+        <v>3341.479452221466</v>
       </c>
       <c r="S32" t="n">
-        <v>3197.139540515747</v>
+        <v>3178.504162921536</v>
       </c>
       <c r="T32" t="n">
-        <v>3197.139540515747</v>
+        <v>2962.40565051496</v>
       </c>
       <c r="U32" t="n">
-        <v>2943.424104067536</v>
+        <v>2708.690214066749</v>
       </c>
       <c r="V32" t="n">
-        <v>2943.424104067536</v>
+        <v>2377.627326723178</v>
       </c>
       <c r="W32" t="n">
-        <v>2590.655448797421</v>
+        <v>2024.858671453064</v>
       </c>
       <c r="X32" t="n">
-        <v>2558.192734458692</v>
+        <v>2024.858671453064</v>
       </c>
       <c r="Y32" t="n">
-        <v>2168.05340248288</v>
+        <v>1634.719339477252</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I33" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J33" t="n">
-        <v>171.1635003404555</v>
+        <v>171.1635003404556</v>
       </c>
       <c r="K33" t="n">
-        <v>475.4705993509099</v>
+        <v>475.47059935091</v>
       </c>
       <c r="L33" t="n">
         <v>946.0534440857964</v>
       </c>
       <c r="M33" t="n">
-        <v>1394.425341114752</v>
+        <v>1309.800086598595</v>
       </c>
       <c r="N33" t="n">
-        <v>1552.620657808585</v>
+        <v>1942.544353892547</v>
       </c>
       <c r="O33" t="n">
         <v>2065.042367504971</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="C34" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="D34" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="E34" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="F34" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="G34" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="H34" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="I34" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J34" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="K34" t="n">
-        <v>153.0971541490671</v>
+        <v>153.0971541490672</v>
       </c>
       <c r="L34" t="n">
         <v>318.5394338551382</v>
       </c>
       <c r="M34" t="n">
-        <v>503.3642441804035</v>
+        <v>503.3642441804036</v>
       </c>
       <c r="N34" t="n">
         <v>689.2289500417505</v>
@@ -6885,25 +6885,25 @@
         <v>954.5619983528705</v>
       </c>
       <c r="S34" t="n">
-        <v>744.8026024876059</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="T34" t="n">
-        <v>584.3512824803997</v>
+        <v>900.4633898252298</v>
       </c>
       <c r="U34" t="n">
-        <v>295.1918474943309</v>
+        <v>611.3039548391611</v>
       </c>
       <c r="V34" t="n">
-        <v>295.1918474943309</v>
+        <v>356.6194666332742</v>
       </c>
       <c r="W34" t="n">
-        <v>295.1918474943309</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="X34" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="Y34" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631354</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1650.323417605177</v>
+        <v>2139.719261025509</v>
       </c>
       <c r="C35" t="n">
-        <v>1281.360900664765</v>
+        <v>1770.756744085097</v>
       </c>
       <c r="D35" t="n">
-        <v>1281.360900664765</v>
+        <v>1412.491045478347</v>
       </c>
       <c r="E35" t="n">
-        <v>895.572648066521</v>
+        <v>1026.702792880102</v>
       </c>
       <c r="F35" t="n">
-        <v>484.5867432769134</v>
+        <v>615.7168880904949</v>
       </c>
       <c r="G35" t="n">
-        <v>67.20229659631354</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H35" t="n">
-        <v>67.20229659631354</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I35" t="n">
         <v>67.20229659631354</v>
       </c>
       <c r="J35" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821406</v>
       </c>
       <c r="K35" t="n">
-        <v>597.6453821726759</v>
+        <v>597.6453821726755</v>
       </c>
       <c r="L35" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M35" t="n">
-        <v>1685.237002375319</v>
+        <v>1685.237002375318</v>
       </c>
       <c r="N35" t="n">
         <v>2260.663407417572</v>
@@ -6955,7 +6955,7 @@
         <v>2758.834606696549</v>
       </c>
       <c r="P35" t="n">
-        <v>3146.337816775585</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q35" t="n">
         <v>3360.114829815677</v>
@@ -6964,25 +6964,25 @@
         <v>3360.114829815677</v>
       </c>
       <c r="S35" t="n">
-        <v>3197.139540515747</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="T35" t="n">
-        <v>3197.139540515747</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="U35" t="n">
-        <v>3197.139540515747</v>
+        <v>3289.924191326522</v>
       </c>
       <c r="V35" t="n">
-        <v>2866.076653172177</v>
+        <v>3289.924191326522</v>
       </c>
       <c r="W35" t="n">
-        <v>2513.307997902062</v>
+        <v>3289.924191326522</v>
       </c>
       <c r="X35" t="n">
-        <v>2139.842239640982</v>
+        <v>2916.458433065442</v>
       </c>
       <c r="Y35" t="n">
-        <v>2036.923257669299</v>
+        <v>2526.319101089631</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>67.20229659631354</v>
       </c>
       <c r="J36" t="n">
-        <v>171.1635003404555</v>
+        <v>171.1635003404556</v>
       </c>
       <c r="K36" t="n">
-        <v>371.4209961046986</v>
+        <v>475.47059935091</v>
       </c>
       <c r="L36" t="n">
-        <v>842.0038408395851</v>
+        <v>946.0534440857964</v>
       </c>
       <c r="M36" t="n">
-        <v>1443.131046326662</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N36" t="n">
-        <v>2075.875313620614</v>
+        <v>1552.620657808585</v>
       </c>
       <c r="O36" t="n">
-        <v>2588.297023317</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P36" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q36" t="n">
         <v>2670.157851783212</v>
@@ -7098,13 +7098,13 @@
         <v>67.20229659631354</v>
       </c>
       <c r="K37" t="n">
-        <v>153.0971541490671</v>
+        <v>153.0971541490672</v>
       </c>
       <c r="L37" t="n">
         <v>318.5394338551382</v>
       </c>
       <c r="M37" t="n">
-        <v>503.3642441804035</v>
+        <v>503.3642441804036</v>
       </c>
       <c r="N37" t="n">
         <v>689.2289500417505</v>
@@ -7125,10 +7125,10 @@
         <v>954.5619983528705</v>
       </c>
       <c r="T37" t="n">
-        <v>728.364214171597</v>
+        <v>900.4633898252298</v>
       </c>
       <c r="U37" t="n">
-        <v>439.2047791855283</v>
+        <v>611.3039548391611</v>
       </c>
       <c r="V37" t="n">
         <v>356.6194666332742</v>
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2008.589116211927</v>
+        <v>1227.422396422165</v>
       </c>
       <c r="C38" t="n">
-        <v>1639.626599271516</v>
+        <v>1227.422396422165</v>
       </c>
       <c r="D38" t="n">
-        <v>1281.360900664765</v>
+        <v>869.1566978154144</v>
       </c>
       <c r="E38" t="n">
-        <v>895.572648066521</v>
+        <v>869.1566978154144</v>
       </c>
       <c r="F38" t="n">
-        <v>484.5867432769134</v>
+        <v>615.7168880904949</v>
       </c>
       <c r="G38" t="n">
-        <v>67.20229659631354</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H38" t="n">
-        <v>67.20229659631354</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I38" t="n">
         <v>67.20229659631354</v>
       </c>
       <c r="J38" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K38" t="n">
-        <v>597.6453821726759</v>
+        <v>597.6453821726757</v>
       </c>
       <c r="L38" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M38" t="n">
-        <v>1685.237002375319</v>
+        <v>1685.237002375318</v>
       </c>
       <c r="N38" t="n">
         <v>2260.663407417572</v>
@@ -7192,34 +7192,34 @@
         <v>2758.834606696549</v>
       </c>
       <c r="P38" t="n">
-        <v>3146.337816775585</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q38" t="n">
         <v>3360.114829815677</v>
       </c>
       <c r="R38" t="n">
-        <v>3360.114829815677</v>
+        <v>3341.479452221466</v>
       </c>
       <c r="S38" t="n">
-        <v>3360.114829815677</v>
+        <v>3178.504162921536</v>
       </c>
       <c r="T38" t="n">
-        <v>3360.114829815677</v>
+        <v>2962.40565051496</v>
       </c>
       <c r="U38" t="n">
-        <v>3158.794046512941</v>
+        <v>2708.690214066749</v>
       </c>
       <c r="V38" t="n">
-        <v>3158.794046512941</v>
+        <v>2377.627326723178</v>
       </c>
       <c r="W38" t="n">
-        <v>3158.794046512941</v>
+        <v>2377.627326723178</v>
       </c>
       <c r="X38" t="n">
-        <v>2785.328288251861</v>
+        <v>2004.161568462098</v>
       </c>
       <c r="Y38" t="n">
-        <v>2395.188956276049</v>
+        <v>1614.022236486287</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>67.20229659631354</v>
       </c>
       <c r="J39" t="n">
-        <v>67.20229659631354</v>
+        <v>171.1635003404556</v>
       </c>
       <c r="K39" t="n">
-        <v>371.5093956067679</v>
+        <v>475.47059935091</v>
       </c>
       <c r="L39" t="n">
-        <v>842.0922403416544</v>
+        <v>578.9215022353719</v>
       </c>
       <c r="M39" t="n">
-        <v>1443.219445828731</v>
+        <v>1180.048707722449</v>
       </c>
       <c r="N39" t="n">
-        <v>1760.597172667076</v>
+        <v>1812.792975016401</v>
       </c>
       <c r="O39" t="n">
-        <v>2273.018882363462</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P39" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q39" t="n">
         <v>2670.157851783212</v>
@@ -7335,13 +7335,13 @@
         <v>67.20229659631354</v>
       </c>
       <c r="K40" t="n">
-        <v>153.0971541490671</v>
+        <v>153.0971541490672</v>
       </c>
       <c r="L40" t="n">
         <v>318.5394338551382</v>
       </c>
       <c r="M40" t="n">
-        <v>503.3642441804035</v>
+        <v>503.3642441804036</v>
       </c>
       <c r="N40" t="n">
         <v>689.2289500417505</v>
@@ -7362,16 +7362,16 @@
         <v>954.5619983528705</v>
       </c>
       <c r="T40" t="n">
-        <v>954.5619983528705</v>
+        <v>728.364214171597</v>
       </c>
       <c r="U40" t="n">
-        <v>665.4025633668018</v>
+        <v>439.2047791855283</v>
       </c>
       <c r="V40" t="n">
-        <v>410.718075160915</v>
+        <v>356.6194666332742</v>
       </c>
       <c r="W40" t="n">
-        <v>121.3009051239544</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="X40" t="n">
         <v>67.20229659631354</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1501.834935861342</v>
+        <v>1526.677751742079</v>
       </c>
       <c r="C41" t="n">
-        <v>1132.87241892093</v>
+        <v>1157.715234801667</v>
       </c>
       <c r="D41" t="n">
-        <v>774.6067203141795</v>
+        <v>799.4495361949167</v>
       </c>
       <c r="E41" t="n">
-        <v>774.6067203141795</v>
+        <v>799.4495361949167</v>
       </c>
       <c r="F41" t="n">
-        <v>484.5867432769134</v>
+        <v>388.4636314053092</v>
       </c>
       <c r="G41" t="n">
-        <v>67.20229659631354</v>
+        <v>388.4636314053092</v>
       </c>
       <c r="H41" t="n">
         <v>67.20229659631354</v>
@@ -7411,7 +7411,7 @@
         <v>67.20229659631354</v>
       </c>
       <c r="J41" t="n">
-        <v>231.1641949821407</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K41" t="n">
         <v>597.6453821726756</v>
@@ -7435,28 +7435,28 @@
         <v>3360.114829815677</v>
       </c>
       <c r="R41" t="n">
-        <v>3341.479452221466</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="S41" t="n">
-        <v>3178.504162921536</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="T41" t="n">
-        <v>2962.40565051496</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="U41" t="n">
-        <v>2962.40565051496</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="V41" t="n">
-        <v>2631.342763171389</v>
+        <v>3029.651337313207</v>
       </c>
       <c r="W41" t="n">
-        <v>2278.574107901275</v>
+        <v>2676.882682043092</v>
       </c>
       <c r="X41" t="n">
-        <v>2278.574107901275</v>
+        <v>2303.416923782012</v>
       </c>
       <c r="Y41" t="n">
-        <v>1888.434775925463</v>
+        <v>1913.277591806201</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>67.20229659631354</v>
       </c>
       <c r="J42" t="n">
-        <v>67.20229659631354</v>
+        <v>171.1635003404556</v>
       </c>
       <c r="K42" t="n">
-        <v>109.6888109643152</v>
+        <v>475.47059935091</v>
       </c>
       <c r="L42" t="n">
-        <v>580.2716556992016</v>
+        <v>946.0534440857964</v>
       </c>
       <c r="M42" t="n">
-        <v>1181.398861186279</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.143128480231</v>
+        <v>1552.620657808585</v>
       </c>
       <c r="O42" t="n">
-        <v>2326.564838176617</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P42" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q42" t="n">
         <v>2670.157851783212</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>121.3009051239544</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="C43" t="n">
-        <v>67.20229659631354</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="D43" t="n">
-        <v>67.20229659631354</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="E43" t="n">
-        <v>67.20229659631354</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="F43" t="n">
-        <v>67.20229659631354</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="G43" t="n">
         <v>67.20229659631354</v>
@@ -7599,22 +7599,22 @@
         <v>954.5619983528705</v>
       </c>
       <c r="T43" t="n">
-        <v>954.5619983528705</v>
+        <v>728.364214171597</v>
       </c>
       <c r="U43" t="n">
-        <v>665.4025633668018</v>
+        <v>728.364214171597</v>
       </c>
       <c r="V43" t="n">
-        <v>410.718075160915</v>
+        <v>473.6797259657102</v>
       </c>
       <c r="W43" t="n">
-        <v>121.3009051239544</v>
+        <v>473.6797259657102</v>
       </c>
       <c r="X43" t="n">
-        <v>121.3009051239544</v>
+        <v>456.7347944131842</v>
       </c>
       <c r="Y43" t="n">
-        <v>121.3009051239544</v>
+        <v>235.9422152696541</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2008.589116211927</v>
+        <v>1632.610244364297</v>
       </c>
       <c r="C44" t="n">
-        <v>1639.626599271516</v>
+        <v>1263.647727423885</v>
       </c>
       <c r="D44" t="n">
-        <v>1281.360900664765</v>
+        <v>905.3820288171351</v>
       </c>
       <c r="E44" t="n">
-        <v>895.572648066521</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="F44" t="n">
-        <v>484.5867432769134</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="G44" t="n">
-        <v>67.20229659631356</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H44" t="n">
-        <v>67.20229659631356</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I44" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J44" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821407</v>
       </c>
       <c r="K44" t="n">
-        <v>597.6453821726757</v>
+        <v>597.6453821726756</v>
       </c>
       <c r="L44" t="n">
         <v>1104.574328908086</v>
@@ -7666,34 +7666,34 @@
         <v>2758.834606696549</v>
       </c>
       <c r="P44" t="n">
-        <v>3146.337816775585</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q44" t="n">
-        <v>3360.114829815678</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="R44" t="n">
-        <v>3341.479452221466</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="S44" t="n">
-        <v>3341.479452221466</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="T44" t="n">
-        <v>3341.479452221466</v>
+        <v>3144.016317409102</v>
       </c>
       <c r="U44" t="n">
-        <v>3158.794046512941</v>
+        <v>2890.30088096089</v>
       </c>
       <c r="V44" t="n">
-        <v>3158.794046512941</v>
+        <v>2559.23799361732</v>
       </c>
       <c r="W44" t="n">
-        <v>3158.794046512941</v>
+        <v>2206.469338347205</v>
       </c>
       <c r="X44" t="n">
-        <v>2785.328288251861</v>
+        <v>1833.003580086126</v>
       </c>
       <c r="Y44" t="n">
-        <v>2395.188956276049</v>
+        <v>1632.610244364297</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I45" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J45" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="K45" t="n">
-        <v>215.2982821430945</v>
+        <v>109.6888109643152</v>
       </c>
       <c r="L45" t="n">
-        <v>318.7491850275565</v>
+        <v>526.725699886047</v>
       </c>
       <c r="M45" t="n">
-        <v>919.8763905146335</v>
+        <v>1127.852905373124</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.620657808585</v>
+        <v>1760.597172667076</v>
       </c>
       <c r="O45" t="n">
-        <v>2065.042367504971</v>
+        <v>2273.018882363462</v>
       </c>
       <c r="P45" t="n">
-        <v>2459.30289775485</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q45" t="n">
         <v>2670.157851783212</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="C46" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="D46" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="E46" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="F46" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="G46" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="H46" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="I46" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J46" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="K46" t="n">
         <v>153.0971541490672</v>
       </c>
       <c r="L46" t="n">
-        <v>318.5394338551383</v>
+        <v>318.5394338551382</v>
       </c>
       <c r="M46" t="n">
         <v>503.3642441804036</v>
@@ -7836,22 +7836,22 @@
         <v>954.5619983528705</v>
       </c>
       <c r="T46" t="n">
-        <v>728.364214171597</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="U46" t="n">
-        <v>611.3039548391611</v>
+        <v>665.4025633668018</v>
       </c>
       <c r="V46" t="n">
-        <v>356.6194666332742</v>
+        <v>410.718075160915</v>
       </c>
       <c r="W46" t="n">
-        <v>67.20229659631356</v>
+        <v>121.3009051239544</v>
       </c>
       <c r="X46" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142006</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8710,7 +8710,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0269485415591</v>
+        <v>275.0442842992674</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050824</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>21.0797184271341</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4180892914347</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>264.3759445862462</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>52.28828423718946</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4180892914347</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599054</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>21.0797184271341</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>311.40677237816</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>160.790313277284</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>311.4067723781599</v>
+        <v>225.9267173113354</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>159.3646276729713</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781596</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>21.0797184271341</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>160.7903132772838</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>131.0619988647947</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>21.07971842713408</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781596</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>264.3759445862456</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11378,10 +11378,10 @@
         <v>21.07971842713408</v>
       </c>
       <c r="K45" t="n">
-        <v>106.6762335139186</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>316.7535212497676</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>135.3257377546729</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>63.43199214934589</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22941,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22959,13 +22959,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>233.7810250527169</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23029,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>46.532969471239</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>40.32635200869791</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>308.91455066525</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>76.04605164210241</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>273.5512295007089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>188.3389559914083</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>56.2595003824851</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4983735401874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>318.5593729370862</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23788,7 +23788,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>248.7227676326953</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>97.27561272412106</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>89.79231049790053</v>
       </c>
       <c r="H20" t="n">
-        <v>287.0044759017155</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24028,16 +24028,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24180,19 +24180,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3958356744439</v>
+        <v>99.16291260175275</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>326.9567218707836</v>
       </c>
       <c r="X23" t="n">
-        <v>13.76352648718006</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,25 +24414,25 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S25" t="n">
-        <v>207.661801906612</v>
+        <v>47.66831900997687</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>102.4398389126002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1782820837292</v>
+        <v>1.68714415789276</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>101.4860889741044</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24621,7 +24621,7 @@
         <v>153.8834111013403</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J28" t="n">
         <v>27.0100671767606</v>
@@ -24648,7 +24648,7 @@
         <v>7.578826164188769</v>
       </c>
       <c r="R28" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>207.661801906612</v>
@@ -24657,19 +24657,19 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>271.4146401528968</v>
+        <v>121.2565678606749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>12.79267028648172</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H29" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>18.44902381826972</v>
       </c>
       <c r="S29" t="n">
-        <v>91.85680430266771</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T29" t="n">
         <v>213.9375272825098</v>
@@ -24739,13 +24739,13 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I31" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>27.0100671767606</v>
@@ -24888,10 +24888,10 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S31" t="n">
-        <v>168.0839551361724</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U31" t="n">
         <v>286.2678406362081</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>156.9951955480415</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>405.5915131711045</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>18.44902381826972</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>337.5930134831271</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J34" t="n">
-        <v>27.0100671767606</v>
+        <v>27.01006717676059</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,28 +25119,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.578826164188769</v>
+        <v>7.578826164188754</v>
       </c>
       <c r="R34" t="n">
         <v>135.0968229573668</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T34" t="n">
-        <v>65.08899953232668</v>
+        <v>170.3781838970964</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I35" t="n">
-        <v>129.8188433654457</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.44902381826972</v>
+        <v>18.44902381826969</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T35" t="n">
         <v>213.9375272825098</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1782820837292</v>
+        <v>181.6895499794658</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>284.3481465040867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25335,7 +25335,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J37" t="n">
-        <v>27.0100671767606</v>
+        <v>27.01006717676059</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.578826164188769</v>
+        <v>7.578826164188754</v>
       </c>
       <c r="R37" t="n">
         <v>135.0968229573668</v>
@@ -25365,13 +25365,13 @@
         <v>207.661801906612</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>170.3781838970964</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>170.3781838970964</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>155.9706341140411</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I38" t="n">
-        <v>129.8188433654457</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.44902381826972</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>51.87070661402021</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25572,7 +25572,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J40" t="n">
-        <v>27.0100671767606</v>
+        <v>27.01006717676059</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.578826164188769</v>
+        <v>7.578826164188754</v>
       </c>
       <c r="R40" t="n">
         <v>135.0968229573668</v>
@@ -25602,19 +25602,19 @@
         <v>207.661801906612</v>
       </c>
       <c r="T40" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>170.3781838970964</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>172.1520329466728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25639,13 +25639,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>119.756268474818</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H41" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>129.8188433654457</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.44902381826969</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U41" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>0.593400892688976</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>113.6891986562634</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>153.8834111013403</v>
@@ -25839,22 +25839,22 @@
         <v>207.661801906612</v>
       </c>
       <c r="T43" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>208.9341731520364</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H44" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>129.8188433654457</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>18.44902381826969</v>
       </c>
       <c r="S44" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T44" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>70.31973043228925</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>187.8485362914435</v>
       </c>
     </row>
     <row r="45">
@@ -26076,10 +26076,10 @@
         <v>207.661801906612</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U46" t="n">
-        <v>170.3781838970964</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1520329466728</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1020681.761978348</v>
+        <v>729397.9021790256</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1020681.761978348</v>
+        <v>729397.9021790256</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1020681.761978348</v>
+        <v>729397.9021790256</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>729397.9021790256</v>
+        <v>729397.9021790257</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>804332.1224631877</v>
+        <v>804332.1224631876</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>804332.1224631874</v>
+        <v>804332.1224631876</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>804332.1224631873</v>
+        <v>804332.1224631874</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>804332.1224631876</v>
+        <v>804332.1224631877</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>804332.1224631876</v>
+        <v>804332.1224631877</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253561</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="F2" t="n">
         <v>318067.8710173334</v>
@@ -26334,28 +26334,28 @@
         <v>318067.8710173334</v>
       </c>
       <c r="I2" t="n">
-        <v>353411.9933975566</v>
+        <v>353411.9933975568</v>
       </c>
       <c r="J2" t="n">
-        <v>353411.9933975568</v>
+        <v>353411.9933975567</v>
       </c>
       <c r="K2" t="n">
         <v>353411.9933975568</v>
       </c>
       <c r="L2" t="n">
-        <v>353411.9933975567</v>
+        <v>353411.9933975568</v>
       </c>
       <c r="M2" t="n">
-        <v>353411.9933975568</v>
+        <v>353411.9933975566</v>
       </c>
       <c r="N2" t="n">
         <v>353411.9933975568</v>
       </c>
       <c r="O2" t="n">
-        <v>353411.9933975565</v>
+        <v>353411.9933975567</v>
       </c>
       <c r="P2" t="n">
-        <v>353411.9933975568</v>
+        <v>353411.9933975567</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151472.5856033442</v>
+        <v>151472.5856033443</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218262</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
@@ -26444,7 +26444,7 @@
         <v>33848.04260492179</v>
       </c>
       <c r="K4" t="n">
-        <v>33848.04260492179</v>
+        <v>33848.0426049218</v>
       </c>
       <c r="L4" t="n">
         <v>33848.04260492179</v>
@@ -26484,28 +26484,28 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340945</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340945</v>
       </c>
       <c r="I5" t="n">
         <v>62418.87211854677</v>
       </c>
       <c r="J5" t="n">
-        <v>62418.87211854677</v>
+        <v>62418.87211854678</v>
       </c>
       <c r="K5" t="n">
-        <v>62418.87211854677</v>
+        <v>62418.87211854678</v>
       </c>
       <c r="L5" t="n">
-        <v>62418.87211854677</v>
+        <v>62418.87211854679</v>
       </c>
       <c r="M5" t="n">
-        <v>62418.87211854678</v>
+        <v>62418.87211854679</v>
       </c>
       <c r="N5" t="n">
-        <v>62418.87211854678</v>
+        <v>62418.87211854679</v>
       </c>
       <c r="O5" t="n">
         <v>62418.87211854679</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-395744.761174424</v>
+        <v>-391310.6742754692</v>
       </c>
       <c r="C6" t="n">
-        <v>194223.1180401203</v>
+        <v>198657.2049390751</v>
       </c>
       <c r="D6" t="n">
-        <v>194223.1180401203</v>
+        <v>198657.2049390751</v>
       </c>
       <c r="E6" t="n">
-        <v>226823.232567838</v>
+        <v>232284.8049390751</v>
       </c>
       <c r="F6" t="n">
-        <v>226823.2325678378</v>
+        <v>232284.8049390753</v>
       </c>
       <c r="G6" t="n">
-        <v>226823.232567838</v>
+        <v>232284.8049390753</v>
       </c>
       <c r="H6" t="n">
-        <v>226823.2325678378</v>
+        <v>232284.8049390751</v>
       </c>
       <c r="I6" t="n">
-        <v>101210.6303422075</v>
+        <v>105226.3067978903</v>
       </c>
       <c r="J6" t="n">
-        <v>76259.99675295901</v>
+        <v>80275.67320864159</v>
       </c>
       <c r="K6" t="n">
-        <v>252683.2159455519</v>
+        <v>256698.8924012346</v>
       </c>
       <c r="L6" t="n">
-        <v>252683.2159455518</v>
+        <v>256698.8924012346</v>
       </c>
       <c r="M6" t="n">
-        <v>252683.2159455519</v>
+        <v>256698.8924012344</v>
       </c>
       <c r="N6" t="n">
-        <v>252683.2159455519</v>
+        <v>256698.8924012345</v>
       </c>
       <c r="O6" t="n">
-        <v>252683.2159455516</v>
+        <v>256698.8924012345</v>
       </c>
       <c r="P6" t="n">
-        <v>252683.2159455518</v>
+        <v>256698.8924012344</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="I3" t="n">
         <v>520.4186562086464</v>
@@ -26767,13 +26767,13 @@
         <v>520.4186562086464</v>
       </c>
       <c r="L3" t="n">
-        <v>520.4186562086464</v>
+        <v>520.4186562086466</v>
       </c>
       <c r="M3" t="n">
-        <v>520.4186562086464</v>
+        <v>520.4186562086466</v>
       </c>
       <c r="N3" t="n">
-        <v>520.4186562086464</v>
+        <v>520.4186562086466</v>
       </c>
       <c r="O3" t="n">
         <v>520.4186562086466</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26804,22 +26804,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="I4" t="n">
         <v>840.0287074539192</v>
       </c>
       <c r="J4" t="n">
-        <v>840.0287074539192</v>
+        <v>840.0287074539193</v>
       </c>
       <c r="K4" t="n">
-        <v>840.0287074539192</v>
+        <v>840.0287074539193</v>
       </c>
       <c r="L4" t="n">
-        <v>840.0287074539192</v>
+        <v>840.0287074539193</v>
       </c>
       <c r="M4" t="n">
         <v>840.0287074539193</v>
@@ -26831,7 +26831,7 @@
         <v>840.0287074539193</v>
       </c>
       <c r="P4" t="n">
-        <v>840.0287074539194</v>
+        <v>840.0287074539193</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142.6749919915599</v>
+        <v>142.67499199156</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>165.7414346993637</v>
+        <v>165.7414346993638</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545555</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>115.6152529948203</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>218.8388043680905</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>69.33174441270474</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>121.1574944321143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479577</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L19" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M19" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,40 +32469,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O20" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L22" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M22" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N22" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.09213530134129</v>
+        <v>2.092135301341291</v>
       </c>
       <c r="H32" t="n">
         <v>21.4260806548615</v>
       </c>
       <c r="I32" t="n">
-        <v>80.65704620496018</v>
+        <v>80.65704620496021</v>
       </c>
       <c r="J32" t="n">
-        <v>177.5673685322155</v>
+        <v>177.5673685322156</v>
       </c>
       <c r="K32" t="n">
         <v>266.1274558379924</v>
       </c>
       <c r="L32" t="n">
-        <v>330.154641566416</v>
+        <v>330.1546415664161</v>
       </c>
       <c r="M32" t="n">
         <v>367.3606527316442</v>
@@ -33438,7 +33438,7 @@
         <v>352.5012617538677</v>
       </c>
       <c r="P32" t="n">
-        <v>300.8516715020045</v>
+        <v>300.8516715020046</v>
       </c>
       <c r="Q32" t="n">
         <v>225.9270760227195</v>
@@ -33447,13 +33447,13 @@
         <v>131.42009412288</v>
       </c>
       <c r="S32" t="n">
-        <v>47.67453317931471</v>
+        <v>47.67453317931472</v>
       </c>
       <c r="T32" t="n">
-        <v>9.158322281621505</v>
+        <v>9.158322281621507</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1673708241073032</v>
+        <v>0.1673708241073033</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33505,34 +33505,34 @@
         <v>180.7571100531485</v>
       </c>
       <c r="L33" t="n">
-        <v>243.0502412793306</v>
+        <v>243.0502412793307</v>
       </c>
       <c r="M33" t="n">
         <v>283.6281676337123</v>
       </c>
       <c r="N33" t="n">
-        <v>291.1349612690238</v>
+        <v>291.1349612690239</v>
       </c>
       <c r="O33" t="n">
-        <v>266.3316117297211</v>
+        <v>266.3316117297212</v>
       </c>
       <c r="P33" t="n">
-        <v>213.7545986227552</v>
+        <v>213.7545986227553</v>
       </c>
       <c r="Q33" t="n">
         <v>142.8892883990231</v>
       </c>
       <c r="R33" t="n">
-        <v>69.50043865367549</v>
+        <v>69.5004386536755</v>
       </c>
       <c r="S33" t="n">
-        <v>20.79219819852468</v>
+        <v>20.79219819852469</v>
       </c>
       <c r="T33" t="n">
-        <v>4.511931557129678</v>
+        <v>4.511931557129679</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07364414946348774</v>
+        <v>0.07364414946348775</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9384598718516574</v>
+        <v>0.9384598718516576</v>
       </c>
       <c r="H34" t="n">
-        <v>8.343761406099288</v>
+        <v>8.34376140609929</v>
       </c>
       <c r="I34" t="n">
-        <v>28.22204778259349</v>
+        <v>28.2220477825935</v>
       </c>
       <c r="J34" t="n">
-        <v>66.34911293991217</v>
+        <v>66.34911293991219</v>
       </c>
       <c r="K34" t="n">
-        <v>109.0319742024016</v>
+        <v>109.0319742024017</v>
       </c>
       <c r="L34" t="n">
         <v>139.5233885842001</v>
@@ -33599,19 +33599,19 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.58321708750562</v>
+        <v>78.58321708750563</v>
       </c>
       <c r="R34" t="n">
-        <v>42.19656841980269</v>
+        <v>42.1965684198027</v>
       </c>
       <c r="S34" t="n">
-        <v>16.35479613036024</v>
+        <v>16.35479613036025</v>
       </c>
       <c r="T34" t="n">
-        <v>4.009783088820717</v>
+        <v>4.009783088820718</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05118872028281773</v>
+        <v>0.05118872028281775</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.09213530134129</v>
+        <v>2.092135301341291</v>
       </c>
       <c r="H35" t="n">
         <v>21.4260806548615</v>
       </c>
       <c r="I35" t="n">
-        <v>80.65704620496018</v>
+        <v>80.65704620496021</v>
       </c>
       <c r="J35" t="n">
-        <v>177.5673685322155</v>
+        <v>177.5673685322156</v>
       </c>
       <c r="K35" t="n">
         <v>266.1274558379924</v>
       </c>
       <c r="L35" t="n">
-        <v>330.154641566416</v>
+        <v>330.1546415664161</v>
       </c>
       <c r="M35" t="n">
         <v>367.3606527316442</v>
@@ -33675,7 +33675,7 @@
         <v>352.5012617538677</v>
       </c>
       <c r="P35" t="n">
-        <v>300.8516715020045</v>
+        <v>300.8516715020046</v>
       </c>
       <c r="Q35" t="n">
         <v>225.9270760227195</v>
@@ -33684,13 +33684,13 @@
         <v>131.42009412288</v>
       </c>
       <c r="S35" t="n">
-        <v>47.67453317931471</v>
+        <v>47.67453317931472</v>
       </c>
       <c r="T35" t="n">
-        <v>9.158322281621505</v>
+        <v>9.158322281621507</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1673708241073032</v>
+        <v>0.1673708241073033</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33742,34 +33742,34 @@
         <v>180.7571100531485</v>
       </c>
       <c r="L36" t="n">
-        <v>243.0502412793306</v>
+        <v>243.0502412793307</v>
       </c>
       <c r="M36" t="n">
         <v>283.6281676337123</v>
       </c>
       <c r="N36" t="n">
-        <v>291.1349612690238</v>
+        <v>291.1349612690239</v>
       </c>
       <c r="O36" t="n">
-        <v>266.3316117297211</v>
+        <v>266.3316117297212</v>
       </c>
       <c r="P36" t="n">
-        <v>213.7545986227552</v>
+        <v>213.7545986227553</v>
       </c>
       <c r="Q36" t="n">
         <v>142.8892883990231</v>
       </c>
       <c r="R36" t="n">
-        <v>69.50043865367549</v>
+        <v>69.5004386536755</v>
       </c>
       <c r="S36" t="n">
-        <v>20.79219819852468</v>
+        <v>20.79219819852469</v>
       </c>
       <c r="T36" t="n">
-        <v>4.511931557129678</v>
+        <v>4.511931557129679</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07364414946348774</v>
+        <v>0.07364414946348775</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9384598718516574</v>
+        <v>0.9384598718516576</v>
       </c>
       <c r="H37" t="n">
-        <v>8.343761406099288</v>
+        <v>8.34376140609929</v>
       </c>
       <c r="I37" t="n">
-        <v>28.22204778259349</v>
+        <v>28.2220477825935</v>
       </c>
       <c r="J37" t="n">
-        <v>66.34911293991217</v>
+        <v>66.34911293991219</v>
       </c>
       <c r="K37" t="n">
-        <v>109.0319742024016</v>
+        <v>109.0319742024017</v>
       </c>
       <c r="L37" t="n">
         <v>139.5233885842001</v>
@@ -33836,19 +33836,19 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.58321708750562</v>
+        <v>78.58321708750563</v>
       </c>
       <c r="R37" t="n">
-        <v>42.19656841980269</v>
+        <v>42.1965684198027</v>
       </c>
       <c r="S37" t="n">
-        <v>16.35479613036024</v>
+        <v>16.35479613036025</v>
       </c>
       <c r="T37" t="n">
-        <v>4.009783088820717</v>
+        <v>4.009783088820718</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05118872028281773</v>
+        <v>0.05118872028281775</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.09213530134129</v>
+        <v>2.092135301341291</v>
       </c>
       <c r="H38" t="n">
         <v>21.4260806548615</v>
       </c>
       <c r="I38" t="n">
-        <v>80.65704620496018</v>
+        <v>80.65704620496021</v>
       </c>
       <c r="J38" t="n">
-        <v>177.5673685322155</v>
+        <v>177.5673685322156</v>
       </c>
       <c r="K38" t="n">
         <v>266.1274558379924</v>
       </c>
       <c r="L38" t="n">
-        <v>330.154641566416</v>
+        <v>330.1546415664161</v>
       </c>
       <c r="M38" t="n">
         <v>367.3606527316442</v>
@@ -33912,7 +33912,7 @@
         <v>352.5012617538677</v>
       </c>
       <c r="P38" t="n">
-        <v>300.8516715020045</v>
+        <v>300.8516715020046</v>
       </c>
       <c r="Q38" t="n">
         <v>225.9270760227195</v>
@@ -33921,13 +33921,13 @@
         <v>131.42009412288</v>
       </c>
       <c r="S38" t="n">
-        <v>47.67453317931471</v>
+        <v>47.67453317931472</v>
       </c>
       <c r="T38" t="n">
-        <v>9.158322281621505</v>
+        <v>9.158322281621507</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1673708241073032</v>
+        <v>0.1673708241073033</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33979,34 +33979,34 @@
         <v>180.7571100531485</v>
       </c>
       <c r="L39" t="n">
-        <v>243.0502412793306</v>
+        <v>243.0502412793307</v>
       </c>
       <c r="M39" t="n">
         <v>283.6281676337123</v>
       </c>
       <c r="N39" t="n">
-        <v>291.1349612690238</v>
+        <v>291.1349612690239</v>
       </c>
       <c r="O39" t="n">
-        <v>266.3316117297211</v>
+        <v>266.3316117297212</v>
       </c>
       <c r="P39" t="n">
-        <v>213.7545986227552</v>
+        <v>213.7545986227553</v>
       </c>
       <c r="Q39" t="n">
         <v>142.8892883990231</v>
       </c>
       <c r="R39" t="n">
-        <v>69.50043865367549</v>
+        <v>69.5004386536755</v>
       </c>
       <c r="S39" t="n">
-        <v>20.79219819852468</v>
+        <v>20.79219819852469</v>
       </c>
       <c r="T39" t="n">
-        <v>4.511931557129678</v>
+        <v>4.511931557129679</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07364414946348774</v>
+        <v>0.07364414946348775</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9384598718516574</v>
+        <v>0.9384598718516576</v>
       </c>
       <c r="H40" t="n">
-        <v>8.343761406099288</v>
+        <v>8.34376140609929</v>
       </c>
       <c r="I40" t="n">
-        <v>28.22204778259349</v>
+        <v>28.2220477825935</v>
       </c>
       <c r="J40" t="n">
-        <v>66.34911293991217</v>
+        <v>66.34911293991219</v>
       </c>
       <c r="K40" t="n">
-        <v>109.0319742024016</v>
+        <v>109.0319742024017</v>
       </c>
       <c r="L40" t="n">
         <v>139.5233885842001</v>
@@ -34073,19 +34073,19 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.58321708750562</v>
+        <v>78.58321708750563</v>
       </c>
       <c r="R40" t="n">
-        <v>42.19656841980269</v>
+        <v>42.1965684198027</v>
       </c>
       <c r="S40" t="n">
-        <v>16.35479613036024</v>
+        <v>16.35479613036025</v>
       </c>
       <c r="T40" t="n">
-        <v>4.009783088820717</v>
+        <v>4.009783088820718</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05118872028281773</v>
+        <v>0.05118872028281775</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047518</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>220.2054057751866</v>
+        <v>296.2227415328948</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N19" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O19" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530451</v>
@@ -36141,7 +36141,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730088</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N22" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O22" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>307.380908091368</v>
+        <v>42.91567107878947</v>
       </c>
       <c r="L24" t="n">
         <v>475.3362068029156</v>
       </c>
       <c r="M24" t="n">
-        <v>557.9122230031287</v>
+        <v>607.1991974616939</v>
       </c>
       <c r="N24" t="n">
-        <v>159.7932491856905</v>
+        <v>639.1356235292441</v>
       </c>
       <c r="O24" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P24" t="n">
-        <v>398.2429598483621</v>
+        <v>344.1561357946712</v>
       </c>
       <c r="Q24" t="n">
-        <v>212.9848020488507</v>
+        <v>2.90751431300157</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>307.380908091368</v>
       </c>
       <c r="L27" t="n">
-        <v>475.3362068029156</v>
+        <v>156.7841457366459</v>
       </c>
       <c r="M27" t="n">
-        <v>557.9122230031287</v>
+        <v>607.1991974616939</v>
       </c>
       <c r="N27" t="n">
-        <v>159.7932491856905</v>
+        <v>639.1356235292441</v>
       </c>
       <c r="O27" t="n">
         <v>517.5976865620062</v>
@@ -36694,7 +36694,7 @@
         <v>398.2429598483621</v>
       </c>
       <c r="Q27" t="n">
-        <v>212.9848020488507</v>
+        <v>2.90751431300157</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>391.4173839182176</v>
       </c>
       <c r="Q29" t="n">
-        <v>215.9363768081747</v>
+        <v>215.9363768081754</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>307.380908091368</v>
@@ -36919,10 +36919,10 @@
         <v>475.3362068029156</v>
       </c>
       <c r="M30" t="n">
-        <v>141.494133711694</v>
+        <v>607.1991974616939</v>
       </c>
       <c r="N30" t="n">
-        <v>471.2000215638505</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O30" t="n">
         <v>517.5976865620062</v>
@@ -36931,7 +36931,7 @@
         <v>398.2429598483621</v>
       </c>
       <c r="Q30" t="n">
-        <v>212.9848020488507</v>
+        <v>163.6978275902856</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>165.618079177603</v>
+        <v>165.6180791776031</v>
       </c>
       <c r="K32" t="n">
         <v>370.1830173641766</v>
       </c>
       <c r="L32" t="n">
-        <v>512.0494411468792</v>
+        <v>512.0494411468793</v>
       </c>
       <c r="M32" t="n">
-        <v>586.5279529972039</v>
+        <v>586.527952997204</v>
       </c>
       <c r="N32" t="n">
         <v>581.2387929719735</v>
       </c>
       <c r="O32" t="n">
-        <v>503.2032315949263</v>
+        <v>503.2032315949264</v>
       </c>
       <c r="P32" t="n">
-        <v>391.4173839182176</v>
+        <v>391.4173839182177</v>
       </c>
       <c r="Q32" t="n">
         <v>215.9363768081747</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>105.0113169132747</v>
+        <v>105.0113169132748</v>
       </c>
       <c r="K33" t="n">
-        <v>307.380908091368</v>
+        <v>307.3809080913681</v>
       </c>
       <c r="L33" t="n">
         <v>475.3362068029156</v>
       </c>
       <c r="M33" t="n">
-        <v>452.9009060898539</v>
+        <v>367.4208510230294</v>
       </c>
       <c r="N33" t="n">
-        <v>159.7932491856905</v>
+        <v>639.1356235292442</v>
       </c>
       <c r="O33" t="n">
-        <v>517.5976865620062</v>
+        <v>123.7353672852768</v>
       </c>
       <c r="P33" t="n">
         <v>398.2429598483621</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>86.76248237651878</v>
+        <v>86.7624823765188</v>
       </c>
       <c r="L34" t="n">
         <v>167.1134138445162</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>165.618079177603</v>
+        <v>165.6180791776031</v>
       </c>
       <c r="K35" t="n">
         <v>370.1830173641766</v>
       </c>
       <c r="L35" t="n">
-        <v>512.0494411468792</v>
+        <v>512.0494411468793</v>
       </c>
       <c r="M35" t="n">
-        <v>586.5279529972039</v>
+        <v>586.527952997204</v>
       </c>
       <c r="N35" t="n">
         <v>581.2387929719735</v>
       </c>
       <c r="O35" t="n">
-        <v>503.2032315949263</v>
+        <v>503.2032315949264</v>
       </c>
       <c r="P35" t="n">
-        <v>391.4173839182176</v>
+        <v>391.4173839182177</v>
       </c>
       <c r="Q35" t="n">
-        <v>215.9363768081747</v>
+        <v>215.9363768081749</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>105.0113169132747</v>
+        <v>105.0113169132748</v>
       </c>
       <c r="K36" t="n">
-        <v>202.2802987517607</v>
+        <v>307.3809080913681</v>
       </c>
       <c r="L36" t="n">
         <v>475.3362068029156</v>
       </c>
       <c r="M36" t="n">
-        <v>607.1991974616939</v>
+        <v>452.9009060898537</v>
       </c>
       <c r="N36" t="n">
-        <v>639.1356235292441</v>
+        <v>159.7932491856906</v>
       </c>
       <c r="O36" t="n">
-        <v>517.5976865620062</v>
+        <v>517.5976865620063</v>
       </c>
       <c r="P36" t="n">
-        <v>79.78019120842495</v>
+        <v>398.2429598483621</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.90751431300157</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>86.76248237651878</v>
+        <v>86.7624823765188</v>
       </c>
       <c r="L37" t="n">
         <v>167.1134138445162</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>165.618079177603</v>
+        <v>165.6180791776031</v>
       </c>
       <c r="K38" t="n">
         <v>370.1830173641766</v>
       </c>
       <c r="L38" t="n">
-        <v>512.0494411468792</v>
+        <v>512.0494411468793</v>
       </c>
       <c r="M38" t="n">
-        <v>586.5279529972039</v>
+        <v>586.527952997204</v>
       </c>
       <c r="N38" t="n">
         <v>581.2387929719735</v>
       </c>
       <c r="O38" t="n">
-        <v>503.2032315949263</v>
+        <v>503.2032315949264</v>
       </c>
       <c r="P38" t="n">
-        <v>391.4173839182176</v>
+        <v>391.4173839182177</v>
       </c>
       <c r="Q38" t="n">
         <v>215.9363768081747</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>105.0113169132748</v>
       </c>
       <c r="K39" t="n">
-        <v>307.380908091368</v>
+        <v>307.3809080913681</v>
       </c>
       <c r="L39" t="n">
-        <v>475.3362068029156</v>
+        <v>104.4958614994565</v>
       </c>
       <c r="M39" t="n">
-        <v>607.1991974616939</v>
+        <v>607.199197461694</v>
       </c>
       <c r="N39" t="n">
-        <v>320.5835624629744</v>
+        <v>639.1356235292442</v>
       </c>
       <c r="O39" t="n">
-        <v>517.5976865620062</v>
+        <v>254.7973661500714</v>
       </c>
       <c r="P39" t="n">
         <v>398.2429598483621</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.90751431300157</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>86.76248237651878</v>
+        <v>86.7624823765188</v>
       </c>
       <c r="L40" t="n">
         <v>167.1134138445162</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>165.6180791776032</v>
+        <v>165.6180791776031</v>
       </c>
       <c r="K41" t="n">
         <v>370.1830173641766</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>105.0113169132748</v>
       </c>
       <c r="K42" t="n">
-        <v>42.9156710787895</v>
+        <v>307.3809080913681</v>
       </c>
       <c r="L42" t="n">
         <v>475.3362068029156</v>
       </c>
       <c r="M42" t="n">
-        <v>607.199197461694</v>
+        <v>452.9009060898537</v>
       </c>
       <c r="N42" t="n">
-        <v>639.1356235292442</v>
+        <v>159.7932491856906</v>
       </c>
       <c r="O42" t="n">
         <v>517.5976865620063</v>
       </c>
       <c r="P42" t="n">
-        <v>344.1561357946707</v>
+        <v>398.2429598483621</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.907514313001599</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>165.6180791776031</v>
+        <v>165.6180791776032</v>
       </c>
       <c r="K44" t="n">
         <v>370.1830173641766</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>149.5919045927081</v>
+        <v>42.9156710787895</v>
       </c>
       <c r="L45" t="n">
-        <v>104.4958614994565</v>
+        <v>421.2493827492241</v>
       </c>
       <c r="M45" t="n">
         <v>607.199197461694</v>
@@ -38116,7 +38116,7 @@
         <v>398.2429598483621</v>
       </c>
       <c r="Q45" t="n">
-        <v>212.9848020488507</v>
+        <v>2.907514313001599</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
